--- a/Data files [xls]/stadiums.xlsx
+++ b/Data files [xls]/stadiums.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unkin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Project (class d)\Data files [xls]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DC106C-BA25-4817-94DB-0F3BF24E7F3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C782007C-B948-441F-97E2-6E6099DE0DC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Senvagės stadionas</t>
   </si>
@@ -81,12 +81,6 @@
     <t>Address</t>
   </si>
   <si>
-    <t xml:space="preserve"> Širvintų g. 80, Vilnius, Lithuania</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> P. Žadeikos g. 2, Vilnius, Lithuania</t>
-  </si>
-  <si>
     <t>Gruodžio 17-osios g. 52, Ukmergė, Lithuania</t>
   </si>
   <si>
@@ -102,9 +96,6 @@
     <t>Linkmenų g. 8, Vilnius, Lithuania</t>
   </si>
   <si>
-    <t xml:space="preserve"> Bukčių g. 8a, Vilnius, Lithuania</t>
-  </si>
-  <si>
     <t>Stadiono g. 2, Vilnius, Lithuania</t>
   </si>
   <si>
@@ -123,10 +114,25 @@
     <t>Vilniaus g. 69, Širvintos 19121, Lithuania</t>
   </si>
   <si>
-    <t xml:space="preserve"> Mokyklos g. 8, Kalveliai, Lithuania</t>
-  </si>
-  <si>
     <t>Birutės 19A, Trakai, Lithuania</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>P. Žadeikos g. 2, Vilnius, Lithuania</t>
+  </si>
+  <si>
+    <t>Širvintų g. 80, Vilnius, Lithuania</t>
+  </si>
+  <si>
+    <t>Bukčių g. 8a, Vilnius, Lithuania</t>
+  </si>
+  <si>
+    <t>Mokyklos g. 8, Kalveliai, Lithuania</t>
   </si>
 </sst>
 </file>
@@ -159,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -182,11 +188,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -196,6 +215,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,152 +497,255 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>54.711832000000001</v>
+      </c>
+      <c r="D2">
+        <v>25.280244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>54.732413000000001</v>
+      </c>
+      <c r="D3">
+        <v>25.239281999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>55.250576000000002</v>
+      </c>
+      <c r="D4">
+        <v>24.786006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>54.856226999999997</v>
+      </c>
+      <c r="D5">
+        <v>24.438132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>54.684804</v>
+      </c>
+      <c r="D6">
+        <v>25.413872999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>54.702877999999998</v>
+      </c>
+      <c r="D7">
+        <v>25.269054000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>54.664580000000001</v>
+      </c>
+      <c r="D8">
+        <v>25.212713999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>54.668515999999997</v>
+      </c>
+      <c r="D9">
+        <v>25.294715</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>54.840871999999997</v>
+      </c>
+      <c r="D10">
+        <v>25.476927</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>54.981305999999996</v>
+      </c>
+      <c r="D11">
+        <v>25.769617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>54.781984999999999</v>
+      </c>
+      <c r="D12">
+        <v>24.656849999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>54.810657999999997</v>
+      </c>
+      <c r="D13">
+        <v>24.445882000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>54.634146000000001</v>
+      </c>
+      <c r="D14">
+        <v>25.245027</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>55.037883999999998</v>
+      </c>
+      <c r="D15">
+        <v>24.960401999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>54.634641999999999</v>
+      </c>
+      <c r="D16">
+        <v>25.691137000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>54.639879000000001</v>
+      </c>
+      <c r="D17">
+        <v>24.937218000000001</v>
       </c>
     </row>
   </sheetData>
